--- a/data/CS1_3/case18_3/case18_3_2040.xlsx
+++ b/data/CS1_3/case18_3/case18_3_2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8930A42-82EC-4A6D-9879-CC72B2C702B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0C0C3-8012-47C0-82C5-AC83E5A544F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14740,12 +14740,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14811,9 +14811,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>0.4818160208952989</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>0.59255672415818483</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>1.4966741680798741</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>1.7900360084282378</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>0.97606929416952171</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>0.47748903933465997</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>1.0580115806790464</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>0.61027988325487303</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>1.506790039947967</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>0.52891124978365689</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>0.4411219662267209</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>1.2052808970525133</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>0.72399414705994114</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>1.0638073983261838</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -16418,9 +16418,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>0.51623551648206278</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>0.61544701922951472</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>1.5791218176907134</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>1.5551808139461751</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>0.87959464132821985</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>0.49213733219729583</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>1.0405929048894886</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>0.61827954938509477</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>1.506790039947967</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>0.50540466096705039</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>0.42332875228314959</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>1.1851675247485169</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0.80098721954126306</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>0.91724673877945295</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -18025,9 +18025,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>4.3912264688238681E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>-0.23806522393723084</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>-0.89013543123913341</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>-2.4508665739090318</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>-0.4179559332358378</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>5.484343032389697E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -18811,7 +18811,7 @@
         <v>-0.63925920642108292</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>-0.36031077928009692</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>-0.75651782476773954</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>-0.21392042781280471</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>-0.11248776716009781</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>0.38072923572268935</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>5.9740950372417209E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>0.71806015583538396</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -19632,9 +19632,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>7.1584585200093392E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>-0.23244375459931949</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>-1.0324712340112479</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>-2.4648783963829097</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>-0.41123831180575582</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>6.9348495521593417E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>-0.60761216513550342</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>-0.36431498473467822</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>-0.75651782476773954</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>-0.19849409279483646</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>-0.11171783907074614</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.211646983845868</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -21024,7 +21024,7 @@
         <v>2.6347262589923259E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>0.68866158285304746</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -21239,9 +21239,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0.12015782299244049</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -21520,7 +21520,7 @@
         <v>-0.22224931353010421</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>-1.0627412788829478</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>-2.3254717946520231</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>-0.45852904723138826</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>9.8579112585848241E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>-0.75651782476773954</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>-0.36435461564468841</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>-0.75651782476773954</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>-0.21685839465158691</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>-0.11876962419682459</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -22530,7 +22530,7 @@
         <v>0.35059523274773424</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>-1.9687394767984961E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>0.75651782476773954</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -22846,9 +22846,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -23329,7 +23329,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -24036,7 +24036,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -24137,7 +24137,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -24339,7 +24339,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -24453,9 +24453,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -24633,7 +24633,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -24936,7 +24936,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -25037,7 +25037,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -25239,7 +25239,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -25340,7 +25340,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -25946,7 +25946,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -26060,9 +26060,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -26139,7 +26139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -26341,7 +26341,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -26442,7 +26442,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -26543,7 +26543,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -26644,7 +26644,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -26745,7 +26745,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -26947,7 +26947,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -27250,7 +27250,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -27351,7 +27351,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -27452,7 +27452,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>29.807146419592424</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -27667,9 +27667,9 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -27746,7 +27746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28025,7 +28025,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -28341,9 +28341,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -28598,7 +28598,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28800,7 +28800,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28901,7 +28901,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29013,12 +29013,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -29095,7 +29095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -29185,9 +29185,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29264,7 +29264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -29442,7 +29442,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -29543,7 +29543,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -29644,7 +29644,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -29745,7 +29745,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29859,9 +29859,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29938,7 +29938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30015,7 +30015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30092,7 +30092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30169,7 +30169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30323,7 +30323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30413,9 +30413,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30569,7 +30569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30723,7 +30723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30800,7 +30800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30877,7 +30877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30967,9 +30967,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31200,7 +31200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31277,7 +31277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31354,7 +31354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -31521,9 +31521,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -31600,7 +31600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31754,7 +31754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31831,7 +31831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31985,7 +31985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -32075,9 +32075,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -32154,7 +32154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -32255,7 +32255,7 @@
         <v>0.47041190597484073</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -32356,7 +32356,7 @@
         <v>0.64153902989319711</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -32457,7 +32457,7 @@
         <v>1.3886812386759659</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -32558,7 +32558,7 @@
         <v>2.1510798403164122</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -32659,7 +32659,7 @@
         <v>1.0608121492703553</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -32760,7 +32760,7 @@
         <v>0.46282003714701558</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -32861,7 +32861,7 @@
         <v>1.0435611886993099</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>0.56016139090081996</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -33063,7 +33063,7 @@
         <v>1.291601514033194</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -33164,7 +33164,7 @@
         <v>0.54585507230236585</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -33265,7 +33265,7 @@
         <v>0.45540624601539226</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -33366,7 +33366,7 @@
         <v>1.2558896766468473</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -33467,7 +33467,7 @@
         <v>0.77224707697328587</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -33568,7 +33568,7 @@
         <v>1.0515263704326061</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -33682,9 +33682,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -33761,7 +33761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -33862,7 +33862,7 @@
         <v>0.48362800152118368</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -33963,7 +33963,7 @@
         <v>0.6521187602552051</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -34064,7 +34064,7 @@
         <v>1.603261277931463</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -34165,7 +34165,7 @@
         <v>2.3811189816285943</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -34266,7 +34266,7 @@
         <v>1.0535963699615261</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -34367,7 +34367,7 @@
         <v>0.48703872485646404</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -34468,7 +34468,7 @@
         <v>1.071458168042676</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -34569,7 +34569,7 @@
         <v>0.61016098715694644</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -34670,7 +34670,7 @@
         <v>1.3252776511606028</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -34771,7 +34771,7 @@
         <v>0.56440939371817933</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -34872,7 +34872,7 @@
         <v>0.46732639226111305</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>1.0892328534180438</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -35074,7 +35074,7 @@
         <v>0.77779378073905314</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -35175,7 +35175,7 @@
         <v>1.1156580082784282</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -35289,9 +35289,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -35368,7 +35368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -35469,7 +35469,7 @@
         <v>0.49801877975119602</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -35570,7 +35570,7 @@
         <v>0.63624484269323678</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -35671,7 +35671,7 @@
         <v>1.6883856500970316</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -35772,7 +35772,7 @@
         <v>1.9609788717485177</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>0.99425716192702285</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35974,7 +35974,7 @@
         <v>0.48805146650866543</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -36075,7 +36075,7 @@
         <v>1.2042069831696571</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -36176,7 +36176,7 @@
         <v>0.7053285919231469</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -36277,7 +36277,7 @@
         <v>1.3154957639915827</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -36378,7 +36378,7 @@
         <v>0.53299124400607556</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -36479,7 +36479,7 @@
         <v>0.43884040799321322</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -36580,7 +36580,7 @@
         <v>1.0089121254450928</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>0.84763840580447458</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -36782,7 +36782,7 @@
         <v>1.0253202562856065</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -36896,9 +36896,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -36975,7 +36975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37076,7 +37076,7 @@
         <v>6.3701522870697358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37177,7 +37177,7 @@
         <v>1.2274195802445586E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -37278,7 +37278,7 @@
         <v>-0.62838417337667996</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -37379,7 +37379,7 @@
         <v>-2.212185282737599</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -37480,7 +37480,7 @@
         <v>-8.8836455833992939E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -37581,7 +37581,7 @@
         <v>6.9992804797435179E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -37682,7 +37682,7 @@
         <v>-0.48214228688422034</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -37783,7 +37783,7 @@
         <v>-0.36726806035670273</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -37884,7 +37884,7 @@
         <v>-7.9569386924914387E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -37985,7 +37985,7 @@
         <v>-0.14276791835842062</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -38086,7 +38086,7 @@
         <v>-9.7704032822630446E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -38187,7 +38187,7 @@
         <v>0.60573025479116072</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -38288,7 +38288,7 @@
         <v>7.8417105573672832E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -38389,7 +38389,7 @@
         <v>0.62376890938452156</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -38503,9 +38503,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -38582,7 +38582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -38683,7 +38683,7 @@
         <v>7.0997573175676051E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -38784,7 +38784,7 @@
         <v>-0.11700194273461711</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38885,7 +38885,7 @@
         <v>-1.0871202939017601</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38986,7 +38986,7 @@
         <v>-2.3271473301744963</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -39087,7 +39087,7 @@
         <v>-0.26104213260007159</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -39188,7 +39188,7 @@
         <v>0.1000648660191796</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>-0.63672453767772041</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -39390,7 +39390,7 @@
         <v>-0.37628201089859542</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -39491,7 +39491,7 @@
         <v>-4.2120302109683913E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -39592,7 +39592,7 @@
         <v>-0.18512028853032561</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -39693,7 +39693,7 @@
         <v>-0.10439582162057087</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -39794,7 +39794,7 @@
         <v>0.20532308076712052</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -39895,7 +39895,7 @@
         <v>5.1685374183519019E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -39996,7 +39996,7 @@
         <v>0.75651782476773954</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -40110,9 +40110,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -40120,7 +40120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>8</v>
       </c>
@@ -40129,7 +40129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>9</v>
       </c>
@@ -40138,7 +40138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>22</v>
       </c>
@@ -40147,7 +40147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -40156,7 +40156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>26</v>
       </c>
@@ -40178,9 +40178,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -40257,7 +40257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -40358,7 +40358,7 @@
         <v>6.9897343173055793E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -40459,7 +40459,7 @@
         <v>-0.19343146104480755</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -40560,7 +40560,7 @@
         <v>-1.0222786585853276</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -40661,7 +40661,7 @@
         <v>-2.1604681495791578</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -40762,7 +40762,7 @@
         <v>-0.21904325135584141</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -40863,7 +40863,7 @@
         <v>9.767146166055321E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -40964,7 +40964,7 @@
         <v>-0.54890820912563143</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -41065,7 +41065,7 @@
         <v>-0.3576439797959664</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -41166,7 +41166,7 @@
         <v>-0.16995289621680246</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -41267,7 +41267,7 @@
         <v>-0.18072892029068743</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -41368,7 +41368,7 @@
         <v>-9.4699513211730993E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -41469,7 +41469,7 @@
         <v>8.7676768166819088E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -41570,7 +41570,7 @@
         <v>8.6035716888860497E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -41671,7 +41671,7 @@
         <v>0.63328666863594396</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -41785,9 +41785,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -41864,7 +41864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -41965,7 +41965,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -42066,7 +42066,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -42167,7 +42167,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -42268,7 +42268,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -42369,7 +42369,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -42470,7 +42470,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -42571,7 +42571,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -42672,7 +42672,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -42773,7 +42773,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -42874,7 +42874,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -42975,7 +42975,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -43076,7 +43076,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -43177,7 +43177,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -43278,7 +43278,7 @@
         <v>0.29897333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -43392,9 +43392,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -43471,7 +43471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -43572,7 +43572,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -43673,7 +43673,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -43774,7 +43774,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -43875,7 +43875,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -43976,7 +43976,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -44077,7 +44077,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -44178,7 +44178,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -44279,7 +44279,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -44380,7 +44380,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -44481,7 +44481,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -44582,7 +44582,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -44683,7 +44683,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -44784,7 +44784,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -44885,7 +44885,7 @@
         <v>0.89611333333333343</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -44999,9 +44999,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -45078,7 +45078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -45179,7 +45179,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -45280,7 +45280,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -45381,7 +45381,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -45482,7 +45482,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -45583,7 +45583,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -45684,7 +45684,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -45785,7 +45785,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -45886,7 +45886,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -45987,7 +45987,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -46088,7 +46088,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -46189,7 +46189,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -46290,7 +46290,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -46391,7 +46391,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -46492,7 +46492,7 @@
         <v>24.675668657843111</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -46606,9 +46606,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -46685,7 +46685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -46762,7 +46762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -46863,7 +46863,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -46964,7 +46964,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47065,7 +47065,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47166,7 +47166,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47280,9 +47280,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -47359,7 +47359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -47436,7 +47436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -47537,7 +47537,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -47638,7 +47638,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47739,7 +47739,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47840,7 +47840,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47954,9 +47954,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48033,7 +48033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48110,7 +48110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48211,7 +48211,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48312,7 +48312,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -48413,7 +48413,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -48514,7 +48514,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -48628,9 +48628,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48707,7 +48707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48784,7 +48784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48861,7 +48861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48938,7 +48938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49015,7 +49015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49092,7 +49092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49182,9 +49182,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49261,7 +49261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49338,7 +49338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49415,7 +49415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -49492,7 +49492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49569,7 +49569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49646,7 +49646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49736,9 +49736,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49815,7 +49815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49892,7 +49892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49969,7 +49969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -50046,7 +50046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -50123,7 +50123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -50200,7 +50200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -50290,9 +50290,9 @@
       <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -50357,7 +50357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -50423,7 +50423,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9</v>
       </c>
@@ -50489,7 +50489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -50555,7 +50555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -50621,7 +50621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26</v>
       </c>
@@ -50700,9 +50700,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -50779,7 +50779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -50856,7 +50856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -50933,7 +50933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -51010,7 +51010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -51087,7 +51087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -51164,7 +51164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -51254,9 +51254,9 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -51264,7 +51264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -51273,7 +51273,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>8</v>
       </c>
@@ -51282,7 +51282,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>21</v>
       </c>
@@ -51291,7 +51291,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>23</v>
       </c>
@@ -51313,9 +51313,9 @@
       <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -51341,7 +51341,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51370,7 +51370,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -51428,7 +51428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23</v>
       </c>
@@ -51471,9 +51471,9 @@
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -51481,7 +51481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51490,7 +51490,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -51499,7 +51499,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -51508,7 +51508,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -51517,7 +51517,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -51526,7 +51526,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -51535,7 +51535,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -51544,7 +51544,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -51553,7 +51553,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -51562,7 +51562,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -51571,7 +51571,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -51580,7 +51580,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -51589,7 +51589,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -51598,7 +51598,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -51607,7 +51607,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -51629,12 +51629,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -51711,7 +51711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -51788,7 +51788,7 @@
         <v>4.2990000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -51865,7 +51865,7 @@
         <v>-9.1426999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -51955,9 +51955,9 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -52034,7 +52034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -52135,7 +52135,7 @@
         <v>0.46677542368556268</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -52236,7 +52236,7 @@
         <v>0.60088963189463418</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -52337,7 +52337,7 @@
         <v>1.2738715873321087</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -52438,7 +52438,7 @@
         <v>1.6810942187103568</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -52539,7 +52539,7 @@
         <v>0.98958753885360129</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -52640,7 +52640,7 @@
         <v>0.45700530720467447</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -52741,7 +52741,7 @@
         <v>0.98976069004995493</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -52842,7 +52842,7 @@
         <v>0.57793947543201996</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -52943,7 +52943,7 @@
         <v>1.506790039947967</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -53044,7 +53044,7 @@
         <v>0.52677030487241039</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -53145,7 +53145,7 @@
         <v>0.44244201499067692</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -53246,7 +53246,7 @@
         <v>1.2103992830491124</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -53347,7 +53347,7 @@
         <v>0.73942859313075782</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -53448,7 +53448,7 @@
         <v>1.0642360583955406</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
